--- a/data/trans_orig/P14B29-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B29-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C518113-651F-4647-81A9-04BBFA4630CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2E8B98-E5C6-44E2-8FA5-7B492AF8F7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0BF3C7F-A319-4ABD-B3B1-8F132906149C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4230A55-B45E-4191-8D29-71C2ED943766}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -85,19 +85,19 @@
     <t>88,67%</t>
   </si>
   <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>86,94%</t>
   </si>
   <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,19 +109,19 @@
     <t>11,33%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,19 +136,19 @@
     <t>87,62%</t>
   </si>
   <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
   </si>
   <si>
     <t>67,67%</t>
@@ -157,19 +157,19 @@
     <t>12,38%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -181,67 +181,67 @@
     <t>45,61%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>80,64%</t>
+    <t>80,31%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>19,69%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -259,21 +259,21 @@
     <t>70,25%</t>
   </si>
   <si>
-    <t>58,37%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
     <t>16,77%</t>
   </si>
   <si>
@@ -283,19 +283,19 @@
     <t>29,75%</t>
   </si>
   <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
+    <t>40,95%</t>
   </si>
   <si>
     <t>57,55%</t>
@@ -307,19 +307,19 @@
     <t>69,5%</t>
   </si>
   <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>68,34%</t>
   </si>
   <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
   </si>
   <si>
     <t>42,45%</t>
@@ -331,19 +331,19 @@
     <t>30,5%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
   </si>
   <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
   </si>
   <si>
     <t>45,59%</t>
@@ -352,19 +352,19 @@
     <t>38,67%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
   </si>
   <si>
     <t>39,89%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
   </si>
   <si>
     <t>54,41%</t>
@@ -373,73 +373,73 @@
     <t>61,33%</t>
   </si>
   <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>60,11%</t>
   </si>
   <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>67,18%</t>
   </si>
   <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
   </si>
   <si>
     <t>Población cuya osteoporosis le limita en 2023 (Tasa respuesta: 4,06%)</t>
@@ -1052,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AE08A4-3AEC-462F-88D9-7A8222CACEA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A092DA5B-8D7E-4454-BADA-13D48465CFAB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1797,7 +1797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48D67EF-DA3C-4345-94F2-AD211F5A5AAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498A6927-AA99-465D-85F8-A0FD5640C455}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2548,7 +2548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22F7F75-C884-49DC-9F54-B84347691C4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174171E9-4D61-48EA-B3DD-CABBE10C647C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B29-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B29-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2E8B98-E5C6-44E2-8FA5-7B492AF8F7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02A092D1-A815-4290-80DE-00CD8EF80414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4230A55-B45E-4191-8D29-71C2ED943766}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{600D9C17-ABA7-4E7F-BDB5-97FB1292E01A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="199">
   <si>
     <t>Población cuya osteoporosis le limita en 2012 (Tasa respuesta: 2,03%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>88,67%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>86,94%</t>
   </si>
   <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,19 +109,19 @@
     <t>11,33%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,19 +136,19 @@
     <t>87,62%</t>
   </si>
   <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>67,67%</t>
@@ -157,19 +157,19 @@
     <t>12,38%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -181,34 +181,34 @@
     <t>45,61%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>80,31%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>83,52%</t>
@@ -217,28 +217,28 @@
     <t>74,92%</t>
   </si>
   <si>
-    <t>89,39%</t>
+    <t>89,33%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>19,69%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>10,61%</t>
+    <t>10,67%</t>
   </si>
   <si>
     <t>25,08%</t>
@@ -247,103 +247,97 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya osteoporosis le limita en 2015 (Tasa respuesta: 1,8%)</t>
+    <t>Población cuya osteoporosis le limita en 2016 (Tasa respuesta: 1,8%)</t>
   </si>
   <si>
     <t>83,23%</t>
   </si>
   <si>
-    <t>22,14%</t>
+    <t>21,42%</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
   </si>
   <si>
     <t>71,11%</t>
   </si>
   <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>77,86%</t>
+    <t>78,58%</t>
   </si>
   <si>
     <t>29,75%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>57,55%</t>
   </si>
   <si>
-    <t>15,39%</t>
+    <t>14,44%</t>
   </si>
   <si>
     <t>69,5%</t>
   </si>
   <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>68,34%</t>
   </si>
   <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>54,28%</t>
   </si>
   <si>
     <t>42,45%</t>
   </si>
   <si>
-    <t>84,61%</t>
+    <t>85,56%</t>
   </si>
   <si>
     <t>30,5%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
   </si>
   <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
+    <t>45,72%</t>
   </si>
   <si>
     <t>45,59%</t>
@@ -352,19 +346,19 @@
     <t>38,67%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>39,89%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>54,41%</t>
@@ -373,73 +367,73 @@
     <t>61,33%</t>
   </si>
   <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>60,11%</t>
   </si>
   <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>67,18%</t>
   </si>
   <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
   </si>
   <si>
     <t>Población cuya osteoporosis le limita en 2023 (Tasa respuesta: 4,06%)</t>
@@ -448,103 +442,103 @@
     <t>76,55%</t>
   </si>
   <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>90,2%</t>
   </si>
   <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>23,45%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
   </si>
   <si>
     <t>75,2%</t>
   </si>
   <si>
-    <t>27,04%</t>
+    <t>28,24%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
   </si>
   <si>
     <t>70,09%</t>
   </si>
   <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>72,96%</t>
+    <t>71,76%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
   </si>
   <si>
     <t>29,91%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
   </si>
   <si>
     <t>57,82%</t>
@@ -553,19 +547,19 @@
     <t>51,46%</t>
   </si>
   <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
   </si>
   <si>
     <t>42,18%</t>
@@ -574,73 +568,73 @@
     <t>48,54%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>78,62%</t>
   </si>
   <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>21,38%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A092DA5B-8D7E-4454-BADA-13D48465CFAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BF383E-34E8-4946-9E7C-E61515B7E7A1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1797,7 +1791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498A6927-AA99-465D-85F8-A0FD5640C455}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFD11C9-C3F2-4059-B15B-B921514F15E0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2112,7 +2106,7 @@
         <v>92</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,13 +2121,13 @@
         <v>2037</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -2142,13 +2136,13 @@
         <v>13523</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -2157,13 +2151,13 @@
         <v>15560</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,7 +2225,7 @@
         <v>1000</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -2246,13 +2240,13 @@
         <v>3982</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2261,13 +2255,13 @@
         <v>4982</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,7 +2276,7 @@
         <v>1194</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -2297,13 +2291,13 @@
         <v>6314</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -2312,13 +2306,13 @@
         <v>7508</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2380,13 @@
         <v>7740</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -2401,13 +2395,13 @@
         <v>82237</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -2416,13 +2410,13 @@
         <v>89976</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2431,13 @@
         <v>4032</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -2452,13 +2446,13 @@
         <v>39926</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -2467,13 +2461,13 @@
         <v>43959</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,7 +2542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174171E9-4D61-48EA-B3DD-CABBE10C647C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412A4391-131E-4554-9148-5F852B88AB2C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2565,7 +2559,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2672,13 +2666,13 @@
         <v>9403</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>163</v>
@@ -2687,13 +2681,13 @@
         <v>85766</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>177</v>
@@ -2702,13 +2696,13 @@
         <v>95169</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2717,13 @@
         <v>2881</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -2738,13 +2732,13 @@
         <v>9323</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -2753,13 +2747,13 @@
         <v>12204</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,10 +2821,10 @@
         <v>11118</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2842,13 +2836,13 @@
         <v>42196</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>83</v>
@@ -2857,13 +2851,13 @@
         <v>53314</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2872,13 @@
         <v>3666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -2893,13 +2887,13 @@
         <v>19084</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -2908,13 +2902,13 @@
         <v>22751</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,7 +2976,7 @@
         <v>1492</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -2997,13 +2991,13 @@
         <v>9526</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3012,13 +3006,13 @@
         <v>11018</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3027,7 @@
         <v>1088</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -3048,13 +3042,13 @@
         <v>8988</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -3063,13 +3057,13 @@
         <v>10076</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3131,13 @@
         <v>22012</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>252</v>
@@ -3152,13 +3146,13 @@
         <v>137489</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>280</v>
@@ -3167,13 +3161,13 @@
         <v>159501</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3182,13 @@
         <v>7636</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -3203,13 +3197,13 @@
         <v>37395</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -3218,13 +3212,13 @@
         <v>45031</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
